--- a/biology/Zoologie/Achalinus_spinalis/Achalinus_spinalis.xlsx
+++ b/biology/Zoologie/Achalinus_spinalis/Achalinus_spinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Achalinus spinalis est une espèce de serpents de la famille des Xenodermatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achalinus spinalis est une espèce de serpents de la famille des Xenodermatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le Nord du Viêt Nam ;
 dans le centre et l'Est de la Chine ;
 au Japon.</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1869 : Über neue Gattungen und neue oder weniger bekannte Arten von Amphibien (Eremias, Dicrodon, Euprepes, Lygosoma, Typhlops, Eryx, Rhynchonyx, Elapomorphus, Achalinus, Coronella, Dromicus, Xenopholis, Anoplodipsas, Spilotes, Tropidonotus). Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1869, p. 432-447 (texte intégral).</t>
         </is>
